--- a/LubanConfig/Datas/Language.xlsx
+++ b/LubanConfig/Datas/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
     <t>show</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -65,37 +68,94 @@
     <t>繁體中文</t>
   </si>
   <si>
+    <t>中文</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
     <t>Spanish</t>
   </si>
   <si>
     <t>Español</t>
   </si>
   <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
     <t>Portuguese</t>
   </si>
   <si>
     <t>Português</t>
   </si>
   <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
     <t>French</t>
   </si>
   <si>
     <t>Français</t>
   </si>
   <si>
+    <t>法语</t>
+  </si>
+  <si>
     <t>Indonesian</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
+    <t>印尼语</t>
+  </si>
+  <si>
     <t>Malay</t>
   </si>
   <si>
     <t>Malaysia</t>
+  </si>
+  <si>
+    <t>马来语</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>हिंदी</t>
+  </si>
+  <si>
+    <t>印地语</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>বাংলা</t>
+  </si>
+  <si>
+    <t>孟加拉语</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>తెలుగు</t>
+  </si>
+  <si>
+    <t>泰卢固语</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>தமிழ்</t>
+  </si>
+  <si>
+    <t>泰米尔语</t>
   </si>
 </sst>
 </file>
@@ -759,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -771,6 +831,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,16 +1173,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.225" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
@@ -1143,7 +1206,9 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1151,9 +1216,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1178,13 +1243,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:35">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1192,11 +1257,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="13"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1221,13 +1286,13 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:35">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1239,7 +1304,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="12"/>
+      <c r="N3" s="13"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1264,128 +1329,174 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4"/>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5"/>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="I5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6"/>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="I6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7"/>
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="I7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8"/>
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9"/>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="I9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10"/>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="I10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="G11" s="9"/>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="I11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="I12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="I13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LubanConfig/Datas/Language.xlsx
+++ b/LubanConfig/Datas/Language.xlsx
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/LubanConfig/Datas/Language.xlsx
+++ b/LubanConfig/Datas/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25755" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>繁體中文</t>
-  </si>
-  <si>
     <t>中文</t>
   </si>
   <si>
@@ -75,51 +72,6 @@
   </si>
   <si>
     <t>英语</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Português</t>
-  </si>
-  <si>
-    <t>葡萄牙语</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>法语</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>印尼语</t>
-  </si>
-  <si>
-    <t>Malay</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>马来语</t>
   </si>
   <si>
     <t>Hindi</t>
@@ -1173,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1335,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="8"/>
@@ -1345,13 +1297,13 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="8"/>
       <c r="I5" s="8"/>
@@ -1361,15 +1313,15 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="10"/>
       <c r="I6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="17"/>
@@ -1377,15 +1329,15 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="10"/>
       <c r="I7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="17"/>
@@ -1393,13 +1345,13 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
@@ -1407,95 +1359,15 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
